--- a/Documentos/FormaConciliacion.xlsx
+++ b/Documentos/FormaConciliacion.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Proyectos\Conciliacion bancaria GM\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Proyectos\Conciliacion Bancaria GM\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="178">
   <si>
     <t>CONCILIACION DE EGRESOS</t>
   </si>
@@ -559,13 +559,52 @@
   </si>
   <si>
     <t>Crear reporte de Crystal Reports basado en ejemplo usando el procedimiento spReporteRelacionCobranza</t>
+  </si>
+  <si>
+    <t>6.1.2.1, 6.1.2.2, 6.1.2.3</t>
+  </si>
+  <si>
+    <t>6.1.3.1, 6.1.3.2, 6.1.3.3</t>
+  </si>
+  <si>
+    <t>Paquete</t>
+  </si>
+  <si>
+    <t>Ricardo-2</t>
+  </si>
+  <si>
+    <t>6.1.2.4, 6.1.2.5</t>
+  </si>
+  <si>
+    <t>Rubén-1 y 2</t>
+  </si>
+  <si>
+    <t>6.1.1 Conciliación por cantidad y referencia</t>
+  </si>
+  <si>
+    <t>6.1.2 Conciliación uno a varios</t>
+  </si>
+  <si>
+    <t>6.1.1.1, 6.1.1.3, 6.1.1.4</t>
+  </si>
+  <si>
+    <t>6.1.1.2</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Fecha asignacion</t>
+  </si>
+  <si>
+    <t>Fecha compromiso</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -633,6 +672,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -672,7 +719,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -684,10 +731,13 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1090,14 +1140,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60" customWidth="1"/>
     <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.42578125" customWidth="1"/>
     <col min="5" max="5" width="44.7109375" bestFit="1" customWidth="1"/>
@@ -1677,10 +1727,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M1" sqref="K1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1691,22 +1741,40 @@
     <col min="5" max="5" width="64.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="56" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.28515625" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H1" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>80</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I2" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="C3" t="s">
         <v>79</v>
@@ -1714,8 +1782,12 @@
       <c r="E3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I3" s="2"/>
+      <c r="J3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="C4" t="s">
         <v>81</v>
@@ -1723,8 +1795,11 @@
       <c r="D4" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="C5" t="s">
         <v>82</v>
@@ -1732,14 +1807,24 @@
       <c r="D5" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I5" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="C6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>168</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>71</v>
       </c>
@@ -1749,54 +1834,74 @@
       <c r="D7" s="8" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>170</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="C8" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="C9" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I9" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="C10" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>168</v>
+      </c>
+      <c r="J10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="C11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="C12" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I12" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="C13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>95</v>
       </c>
@@ -1804,25 +1909,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="C17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I17" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="C18" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="C19" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>96</v>
       </c>
@@ -1833,13 +1941,13 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="C21" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="C22" t="s">
         <v>90</v>
@@ -1848,18 +1956,18 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="C23" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>99</v>
       </c>
@@ -1867,38 +1975,38 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="C31" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="C32" t="s">
         <v>84</v>
@@ -1973,7 +2081,7 @@
       <c r="C44" t="s">
         <v>118</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="11" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1981,7 +2089,7 @@
       <c r="C45" t="s">
         <v>119</v>
       </c>
-      <c r="D45" s="10"/>
+      <c r="D45" s="11"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
@@ -2023,7 +2131,7 @@
       <c r="A55" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="10" t="s">
         <v>163</v>
       </c>
       <c r="D55" t="s">
@@ -2046,12 +2154,12 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="10" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="10" t="s">
         <v>161</v>
       </c>
       <c r="D60" s="8" t="s">

--- a/Documentos/FormaConciliacion.xlsx
+++ b/Documentos/FormaConciliacion.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="180">
   <si>
     <t>CONCILIACION DE EGRESOS</t>
   </si>
@@ -598,6 +598,12 @@
   </si>
   <si>
     <t>Fecha compromiso</t>
+  </si>
+  <si>
+    <t>6.1.5</t>
+  </si>
+  <si>
+    <t>Jorge-1</t>
   </si>
 </sst>
 </file>
@@ -1140,8 +1146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1729,8 +1735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M1" sqref="K1:M1"/>
+    <sheetView topLeftCell="F4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1909,7 +1915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="C17" t="s">
         <v>78</v>
@@ -1918,19 +1924,25 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="C18" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>179</v>
+      </c>
+      <c r="J18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="C19" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>96</v>
       </c>
@@ -1941,13 +1953,13 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="C21" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="C22" t="s">
         <v>90</v>
@@ -1956,18 +1968,18 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="C23" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>99</v>
       </c>
@@ -1975,38 +1987,38 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="C31" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="C32" t="s">
         <v>84</v>

--- a/Documentos/FormaConciliacion.xlsx
+++ b/Documentos/FormaConciliacion.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="203">
   <si>
     <t>CONCILIACION DE EGRESOS</t>
   </si>
@@ -604,6 +604,75 @@
   </si>
   <si>
     <t>Jorge-1</t>
+  </si>
+  <si>
+    <t>AplicarPago</t>
+  </si>
+  <si>
+    <t>TipoConciliacion	Descripcion	Camino	TipoMovimientoArchivo</t>
+  </si>
+  <si>
+    <t>1	CONCILIACION</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>INGRESOS</t>
+  </si>
+  <si>
+    <t>POR</t>
+  </si>
+  <si>
+    <t>VENTA	1	2</t>
+  </si>
+  <si>
+    <t>2	CONCILIACION</t>
+  </si>
+  <si>
+    <t>COBRANZA</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>ABONAR	2	2</t>
+  </si>
+  <si>
+    <t>3	CONCILIACION</t>
+  </si>
+  <si>
+    <t>EGRESOS	3	3</t>
+  </si>
+  <si>
+    <t>4	CONCILIACION</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>EGRESOS	1	1</t>
+  </si>
+  <si>
+    <t>5	CONCILIACION</t>
+  </si>
+  <si>
+    <t>EGRESOS</t>
+  </si>
+  <si>
+    <t>SIN</t>
+  </si>
+  <si>
+    <t>ARCHIVO	1	1</t>
+  </si>
+  <si>
+    <t>6	CONCILIACION</t>
+  </si>
+  <si>
+    <t>ABONAR</t>
+  </si>
+  <si>
+    <t>PEDIDO	2	2</t>
   </si>
 </sst>
 </file>
@@ -739,10 +808,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -763,6 +832,49 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1062203</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76344</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12225618" y="0"/>
+          <a:ext cx="3191320" cy="1028844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1147,7 +1259,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1461,8 +1573,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2</v>
+      <c r="A22" t="s">
+        <v>180</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
@@ -1631,19 +1743,23 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P4"/>
+  <dimension ref="A2:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:P4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="58.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1724,6 +1840,128 @@
       </c>
       <c r="H4" t="s">
         <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E9" t="s">
+        <v>188</v>
+      </c>
+      <c r="F9" t="s">
+        <v>189</v>
+      </c>
+      <c r="G9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" t="s">
+        <v>194</v>
+      </c>
+      <c r="E11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" t="s">
+        <v>194</v>
+      </c>
+      <c r="E12" t="s">
+        <v>197</v>
+      </c>
+      <c r="F12" t="s">
+        <v>198</v>
+      </c>
+      <c r="G12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>200</v>
+      </c>
+      <c r="B13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E13" t="s">
+        <v>188</v>
+      </c>
+      <c r="F13" t="s">
+        <v>189</v>
+      </c>
+      <c r="G13" t="s">
+        <v>201</v>
+      </c>
+      <c r="H13" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -1756,7 +1994,7 @@
       <c r="B1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>167</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -2093,7 +2331,7 @@
       <c r="C44" t="s">
         <v>118</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="12" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2101,7 +2339,7 @@
       <c r="C45" t="s">
         <v>119</v>
       </c>
-      <c r="D45" s="11"/>
+      <c r="D45" s="12"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
